--- a/Properties/Tempe_Vista/TempeVista_WasteAnalysis_Validated.xlsx
+++ b/Properties/Tempe_Vista/TempeVista_WasteAnalysis_Validated.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QUALITY_CHECK" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOCUMENTATION_NOTES" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CONTRACT_TERMS" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REGULATORY_COMPLIANCE" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24,7 +25,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="$#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -58,8 +59,21 @@
       <b val="1"/>
       <color rgb="00006100"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="001E3A8A"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <sz val="9"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -90,6 +104,18 @@
         <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEF3C7"/>
+        <bgColor rgb="00FEF3C7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBEAFE"/>
+        <bgColor rgb="00DBEAFE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -103,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -114,6 +140,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -505,7 +535,6 @@
           <t>Property Overview</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -555,17 +584,13 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-    </row>
+    <row r="7"/>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Analysis Period</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -611,17 +636,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-    </row>
+    <row r="13"/>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>Service Providers</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -647,17 +668,13 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-    </row>
+    <row r="17"/>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>⚠️ DATA QUALITY FLAGS</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -695,17 +712,13 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-    </row>
+    <row r="22"/>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
           <t>Financial Summary</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -743,17 +756,13 @@
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-    </row>
+    <row r="27"/>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
           <t>Vendor Breakdown</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1187,17 +1196,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-    </row>
+    <row r="5"/>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
           <t>⚠️ DATA LIMITATION NOTICE</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1223,17 +1228,13 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-    </row>
+    <row r="9"/>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
           <t>Required for Optimization:</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1295,17 +1296,13 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-    </row>
+    <row r="16"/>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>Current Analysis Capability:</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1379,17 +1376,13 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-    </row>
+    <row r="24"/>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
           <t>Bulk Service Analysis (Ally Waste):</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1427,17 +1420,13 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-    </row>
+    <row r="29"/>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
           <t>✓ BULK OPTIMIZATION TRIGGER MET</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1475,17 +1464,13 @@
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-    </row>
+    <row r="34"/>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
           <t>Recommendation:</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1493,7 +1478,6 @@
           <t>Current bulk service cost is within normal range for subscription service.</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1501,7 +1485,6 @@
           <t>Monitor for:</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1509,7 +1492,6 @@
           <t>- Seasonal variations in bulk generation</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1517,7 +1499,6 @@
           <t>- Opportunities to educate residents on bulk item disposal</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1525,19 +1506,14 @@
           <t>- Comparison with on-call bulk pricing if available</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-    </row>
+    </row>
+    <row r="41"/>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
           <t>📋 DATA COLLECTION PLAN</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1545,7 +1521,6 @@
           <t>Priority 1 - Critical:</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1553,7 +1528,6 @@
           <t>1. Obtain verified unit count from property management</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1561,7 +1535,6 @@
           <t>2. Request service specifications from hauler</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1569,19 +1542,14 @@
           <t>3. Collect container inventory (count, sizes, locations)</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-    </row>
+    </row>
+    <row r="47"/>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
           <t>Priority 2 - Optimization:</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1589,7 +1557,6 @@
           <t>4. Review pickup schedules and frequency</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1597,7 +1564,6 @@
           <t>5. Obtain tonnage reports if compactor service</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1605,7 +1571,6 @@
           <t>6. Document overage incidents and causes</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1812,17 +1777,13 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-    </row>
+    <row r="14"/>
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
           <t>Data Quality Assessment:</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1882,17 +1843,13 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-    </row>
+    <row r="21"/>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
           <t>Critical Issues:</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1930,17 +1887,13 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-    </row>
+    <row r="26"/>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
           <t>Overall Validation:</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2008,17 +1961,13 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-    </row>
+    <row r="3"/>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Analysis Metadata</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2080,17 +2029,13 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-    </row>
+    <row r="10"/>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Data Sources</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2140,17 +2085,13 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-    </row>
+    <row r="16"/>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>Methodology</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2200,17 +2141,13 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-    </row>
+    <row r="22"/>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
           <t>Data Quality Notes</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2260,17 +2197,13 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-    </row>
+    <row r="28"/>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
           <t>Assumptions &amp; Limitations</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
@@ -2344,17 +2277,13 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-    </row>
+    <row r="36"/>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
           <t>Calculation Approach</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2404,17 +2333,13 @@
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-    </row>
+    <row r="42"/>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
           <t>Key Findings</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2476,17 +2401,13 @@
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-    </row>
+    <row r="49"/>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
           <t>Recommendations</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2548,17 +2469,13 @@
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr"/>
-    </row>
+    <row r="56"/>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
           <t>Portfolio Context</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2638,17 +2555,13 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-    </row>
+    <row r="3"/>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Waste Management Agreement</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2722,17 +2635,13 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-    </row>
+    <row r="11"/>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Service Address</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2782,17 +2691,13 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-    </row>
+    <row r="17"/>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
           <t>⚠️ UNIT COUNT STATUS</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2830,17 +2735,13 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-    </row>
+    <row r="22"/>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
           <t>Service Summary (from Contract Page 1)</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2848,7 +2749,6 @@
           <t>Equipment Line 1:</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2922,17 +2822,13 @@
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-    </row>
+    <row r="31"/>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
           <t>Equipment Line 2:</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3006,17 +2902,13 @@
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-    </row>
+    <row r="39"/>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
           <t>Equipment Line 3:</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3090,10 +2982,7 @@
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-    </row>
+    <row r="47"/>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
@@ -3106,17 +2995,13 @@
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-    </row>
+    <row r="49"/>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
           <t>⚠️ COST VARIANCE ANALYSIS</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3178,17 +3063,13 @@
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr"/>
-    </row>
+    <row r="56"/>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
           <t>Service Specifications Summary</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3250,17 +3131,13 @@
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr"/>
-    </row>
+    <row r="63"/>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
           <t>Ally Waste Bulk Service</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -3310,17 +3187,13 @@
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
-    </row>
+    <row r="69"/>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
           <t>📋 CONTRACT GAPS - INFORMATION NEEDED</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="7" t="inlineStr">
@@ -3328,7 +3201,6 @@
           <t>Missing Information:</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3390,17 +3262,13 @@
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-    </row>
+    <row r="77"/>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
           <t>Recommended Actions:</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3408,7 +3276,6 @@
           <t>1. Contact WM for account summary with unit count</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3416,7 +3283,6 @@
           <t>2. Request tonnage reports if available</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3424,7 +3290,6 @@
           <t>3. Verify container count through site survey</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3432,9 +3297,225 @@
           <t>4. Review contract pages 3-4 for additional terms</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>REGULATORY COMPLIANCE ANALYSIS - Tempe Vista</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Research Date:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Confidence Level:</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12" t="inlineStr">
+        <is>
+          <t>PROPERTY INFORMATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Location:</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tempe, AZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>State:</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Units:</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="inlineStr">
+        <is>
+          <t>RECYCLING REQUIREMENTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>VOLUNTARY (Multi-family program available)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="12" t="inlineStr">
+        <is>
+          <t>TEMPE, AZ - VOLUNTARY PROGRAMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>No mandatory multifamily recycling ordinance found</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Voluntary recycling programs available through city or private haulers</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>Contact for Information:</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Tempe Solid Waste</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="12" t="inlineStr">
+        <is>
+          <t>RECOMMENDED NEXT STEPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1. Verify current waste service meets minimum requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2. Confirm waste hauler is properly licensed</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3. Evaluate resident demand for optional recycling amenity</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4. Consider voluntary certification programs if applicable</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="13" t="inlineStr">
+        <is>
+          <t>Generated by: WasteWise Regulatory Compliance Analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="13" t="inlineStr">
+        <is>
+          <t>For detailed findings, see: None</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A14:D14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>